--- a/branches/fix-HIV-test-date-code-and-add-note-elements/StructureDefinition-death.xlsx
+++ b/branches/fix-HIV-test-date-code-and-add-note-elements/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:45:36+00:00</t>
+    <t>2023-02-13T11:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fix-HIV-test-date-code-and-add-note-elements/StructureDefinition-death.xlsx
+++ b/branches/fix-HIV-test-date-code-and-add-note-elements/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:15:25+00:00</t>
+    <t>2023-02-13T11:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
